--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E026110E-90E6-4455-914E-1C3DB6514F1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAD9D6-72FB-45C6-A725-0556B07A9133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1155" yWindow="1493" windowWidth="19365" windowHeight="12187" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
+    <workbookView xWindow="33405" yWindow="780" windowWidth="20325" windowHeight="14655" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="102">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
   <si>
     <t>with</t>
   </si>
@@ -282,9 +282,6 @@
     <t>Investigating the Effectiveness  of Explicit,  Systematic  Mathematics Vocabulary  Instruction  for  Students in  Fourth  Grade</t>
   </si>
   <si>
-    <t>Executivve Functioning in Children With ASD and Co-Occurring Neurodevelopmental Disorders: A Systematic Review and Quantitative Analysis</t>
-  </si>
-  <si>
     <t>Kristen Rolf</t>
   </si>
   <si>
@@ -340,13 +337,67 @@
   </si>
   <si>
     <t>Aug 2019</t>
+  </si>
+  <si>
+    <t>ADHD knowledge and its relationship to stigma and treatment decisions among parents</t>
+  </si>
+  <si>
+    <t>Executive Functioning in Children with ASD and Co-occurring Neurodevelopmental Disorders: A Systematic Review and Quantitative Analysis</t>
+  </si>
+  <si>
+    <t>Dec 2021</t>
+  </si>
+  <si>
+    <t>Olysola Omisakin</t>
+  </si>
+  <si>
+    <t>Sociology</t>
+  </si>
+  <si>
+    <t>BMI trajectories in the AddHealth</t>
+  </si>
+  <si>
+    <t>Mulilevel Modeling with Multiple Imputations</t>
+  </si>
+  <si>
+    <t>Psychology - Brain and Cognition</t>
+  </si>
+  <si>
+    <t>Stephanie (Crank) Avila</t>
+  </si>
+  <si>
+    <t>Language influene on deception and its detection</t>
+  </si>
+  <si>
+    <t>Expected defense: Spring 2023</t>
+  </si>
+  <si>
+    <t>Ben Juarez</t>
+  </si>
+  <si>
+    <t>Psychology - Clinical Counseling</t>
+  </si>
+  <si>
+    <t>Mentor: Dr. Chris Warren</t>
+  </si>
+  <si>
+    <t>Mentor: Dr. Eric Reither</t>
+  </si>
+  <si>
+    <t>Mentor: Dr. Melanie Domenech Rodriguez</t>
+  </si>
+  <si>
+    <t>Proposal defense: April 13, 2022</t>
+  </si>
+  <si>
+    <t>CRIES-8 Validation with Latinx Youth</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -382,6 +433,13 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -404,7 +462,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -421,6 +479,7 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -736,24 +795,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE0E004-468D-403D-8056-2F867B2BC815}">
-  <dimension ref="A1:I60"/>
+  <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I76" sqref="I76"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.796875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
-    <col min="9" max="9" width="37.19921875" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -780,7 +839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -797,26 +856,29 @@
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G2" s="4" t="s">
         <v>17</v>
       </c>
+      <c r="H2" t="s">
+        <v>11</v>
+      </c>
       <c r="I2" s="3" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>2</v>
       </c>
@@ -833,29 +895,26 @@
         <v>14</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="G6" s="5" t="s">
         <v>17</v>
       </c>
-      <c r="H6" t="s">
-        <v>11</v>
-      </c>
       <c r="I6" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>3</v>
       </c>
@@ -872,7 +931,7 @@
         <v>22</v>
       </c>
       <c r="F9" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G9" s="5" t="s">
         <v>17</v>
@@ -881,17 +940,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>4</v>
       </c>
@@ -908,7 +967,7 @@
         <v>26</v>
       </c>
       <c r="F12" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="G12" s="5" t="s">
         <v>27</v>
@@ -917,17 +976,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>5</v>
       </c>
@@ -944,21 +1003,21 @@
         <v>8</v>
       </c>
       <c r="F15" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G15" s="5" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="I15" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17">
         <v>6</v>
       </c>
@@ -975,7 +1034,7 @@
         <v>33</v>
       </c>
       <c r="F17" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G17" s="5" t="s">
         <v>32</v>
@@ -984,17 +1043,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1011,7 +1070,7 @@
         <v>45</v>
       </c>
       <c r="F20" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G20" s="4" t="s">
         <v>48</v>
@@ -1020,17 +1079,17 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I21" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23">
         <v>8</v>
       </c>
@@ -1047,7 +1106,7 @@
         <v>58</v>
       </c>
       <c r="F23" s="1" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="G23" s="5" t="s">
         <v>32</v>
@@ -1056,7 +1115,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -1064,12 +1123,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I25" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1083,29 +1142,29 @@
         <v>21</v>
       </c>
       <c r="E26" t="s">
+        <v>82</v>
+      </c>
+      <c r="F26" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="G26" s="5" t="s">
         <v>83</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>84</v>
       </c>
       <c r="I26" s="7" t="s">
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I27" s="5" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I28" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1119,10 +1178,10 @@
         <v>21</v>
       </c>
       <c r="E29" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="F29" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G29" s="5" t="s">
         <v>32</v>
@@ -1131,17 +1190,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I30" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32">
         <v>11</v>
       </c>
@@ -1158,7 +1217,7 @@
         <v>72</v>
       </c>
       <c r="F32" s="1" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="G32" s="5" t="s">
         <v>32</v>
@@ -1167,17 +1226,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I33" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>12</v>
       </c>
@@ -1203,17 +1262,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>13</v>
       </c>
@@ -1236,20 +1295,20 @@
         <v>65</v>
       </c>
       <c r="I38" s="8" t="s">
-        <v>82</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>14</v>
       </c>
@@ -1257,7 +1316,7 @@
         <v>44</v>
       </c>
       <c r="C41" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D41" t="s">
         <v>21</v>
@@ -1266,7 +1325,7 @@
         <v>79</v>
       </c>
       <c r="F41" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="G41" s="5" t="s">
         <v>27</v>
@@ -1275,17 +1334,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I42" s="5" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I43" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>15</v>
       </c>
@@ -1299,29 +1358,29 @@
         <v>21</v>
       </c>
       <c r="E44" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F44" s="1" t="s">
         <v>53</v>
       </c>
       <c r="G44" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="I44" s="9" t="s">
         <v>91</v>
       </c>
-      <c r="I44" s="9" t="s">
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I45" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I46" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>16</v>
       </c>
@@ -1341,18 +1400,18 @@
         <v>53</v>
       </c>
       <c r="G47" s="5" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="I47" s="3" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I48" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>17</v>
       </c>
@@ -1360,7 +1419,7 @@
         <v>5</v>
       </c>
       <c r="C49" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D49" t="s">
         <v>21</v>
@@ -1369,26 +1428,26 @@
         <v>45</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>53</v>
+        <v>103</v>
       </c>
       <c r="G49" s="4" t="s">
         <v>48</v>
       </c>
       <c r="I49" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I50" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>18</v>
       </c>
@@ -1414,17 +1473,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I53" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I54" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -1450,17 +1509,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I56" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I57" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20</v>
       </c>
@@ -1471,7 +1530,7 @@
         <v>40</v>
       </c>
       <c r="D58" t="s">
-        <v>15</v>
+        <v>21</v>
       </c>
       <c r="E58" t="s">
         <v>63</v>
@@ -1483,17 +1542,125 @@
         <v>65</v>
       </c>
       <c r="I58" s="6" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I59" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I60" t="s">
         <v>64</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>21</v>
+      </c>
+      <c r="B61" t="s">
+        <v>5</v>
+      </c>
+      <c r="C61" t="s">
+        <v>40</v>
+      </c>
+      <c r="D61" t="s">
+        <v>21</v>
+      </c>
+      <c r="E61" t="s">
+        <v>104</v>
+      </c>
+      <c r="F61" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G61" t="s">
+        <v>105</v>
+      </c>
+      <c r="I61" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>22</v>
+      </c>
+      <c r="B64" t="s">
+        <v>5</v>
+      </c>
+      <c r="C64" t="s">
+        <v>40</v>
+      </c>
+      <c r="D64" t="s">
+        <v>21</v>
+      </c>
+      <c r="E64" t="s">
+        <v>109</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G64" s="5" t="s">
+        <v>108</v>
+      </c>
+      <c r="I64" s="10" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I65" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I66" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>23</v>
+      </c>
+      <c r="B67" t="s">
+        <v>44</v>
+      </c>
+      <c r="C67" t="s">
+        <v>40</v>
+      </c>
+      <c r="D67" t="s">
+        <v>21</v>
+      </c>
+      <c r="E67" t="s">
+        <v>112</v>
+      </c>
+      <c r="F67" s="1" t="s">
+        <v>53</v>
+      </c>
+      <c r="G67" s="5" t="s">
+        <v>113</v>
+      </c>
+      <c r="I67" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
+        <v>116</v>
       </c>
     </row>
   </sheetData>
@@ -1510,6 +1677,6 @@
     <hyperlink ref="I33" r:id="rId10" xr:uid="{595FBA2E-8E09-458F-A4C3-111A47B02FAD}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="0" verticalDpi="0" r:id="rId11"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId11"/>
 </worksheet>
 </file>
--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{62DAD9D6-72FB-45C6-A725-0556B07A9133}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CB6BA9-FA5E-4E37-A076-AC7CDAD78EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33405" yWindow="780" windowWidth="20325" windowHeight="14655" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="120">
   <si>
     <t>with</t>
   </si>
@@ -391,6 +391,9 @@
   </si>
   <si>
     <t>CRIES-8 Validation with Latinx Youth</t>
+  </si>
+  <si>
+    <t>May 2022</t>
   </si>
 </sst>
 </file>
@@ -797,20 +800,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE0E004-468D-403D-8056-2F867B2BC815}">
   <dimension ref="A1:I69"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A46" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I76" sqref="I76"/>
+    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I26" sqref="I26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
-    <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.85546875" style="5" customWidth="1"/>
-    <col min="8" max="8" width="14.42578125" customWidth="1"/>
-    <col min="9" max="9" width="37.140625" customWidth="1"/>
+    <col min="5" max="5" width="23.59765625" customWidth="1"/>
+    <col min="6" max="6" width="13.59765625" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.86328125" style="5" customWidth="1"/>
+    <col min="8" max="8" width="14.3984375" customWidth="1"/>
+    <col min="9" max="9" width="37.1328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
         <v>98</v>
       </c>
@@ -839,7 +842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A2">
         <v>1</v>
       </c>
@@ -868,17 +871,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I4" s="3" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A6">
         <v>2</v>
       </c>
@@ -904,17 +907,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I7" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A9">
         <v>3</v>
       </c>
@@ -940,17 +943,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I10" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I11" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A12">
         <v>4</v>
       </c>
@@ -976,17 +979,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I14" s="3" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A15">
         <v>5</v>
       </c>
@@ -1012,12 +1015,12 @@
         <v>9</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I16" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A17">
         <v>6</v>
       </c>
@@ -1043,17 +1046,17 @@
         <v>31</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I18" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I19" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A20">
         <v>7</v>
       </c>
@@ -1079,22 +1082,22 @@
         <v>46</v>
       </c>
     </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I21" s="2" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I22" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A23">
         <v>8</v>
       </c>
       <c r="B23" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C23" t="s">
         <v>7</v>
@@ -1115,7 +1118,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
       <c r="B24" t="s">
         <v>13</v>
       </c>
@@ -1123,12 +1126,12 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="I25" s="6" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A26">
         <v>9</v>
       </c>
@@ -1154,17 +1157,17 @@
         <v>81</v>
       </c>
     </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I27" s="5" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I28" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A29">
         <v>10</v>
       </c>
@@ -1190,17 +1193,17 @@
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I30" s="2" t="s">
         <v>69</v>
       </c>
     </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I31" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A32">
         <v>11</v>
       </c>
@@ -1226,17 +1229,17 @@
         <v>70</v>
       </c>
     </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I33" s="2" t="s">
         <v>71</v>
       </c>
     </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I34" t="s">
         <v>67</v>
       </c>
     </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A35">
         <v>12</v>
       </c>
@@ -1262,17 +1265,17 @@
         <v>74</v>
       </c>
     </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
         <v>75</v>
       </c>
     </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I37" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A38">
         <v>13</v>
       </c>
@@ -1298,17 +1301,17 @@
         <v>102</v>
       </c>
     </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I40" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A41">
         <v>14</v>
       </c>
@@ -1334,17 +1337,17 @@
         <v>78</v>
       </c>
     </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I42" s="5" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I43" s="5" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A44">
         <v>15</v>
       </c>
@@ -1352,7 +1355,7 @@
         <v>44</v>
       </c>
       <c r="C44" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D44" t="s">
         <v>21</v>
@@ -1361,7 +1364,7 @@
         <v>93</v>
       </c>
       <c r="F44" s="1" t="s">
-        <v>53</v>
+        <v>119</v>
       </c>
       <c r="G44" s="5" t="s">
         <v>90</v>
@@ -1370,17 +1373,17 @@
         <v>91</v>
       </c>
     </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I45" t="s">
         <v>92</v>
       </c>
     </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I46" t="s">
         <v>89</v>
       </c>
     </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A47">
         <v>16</v>
       </c>
@@ -1406,12 +1409,12 @@
         <v>42</v>
       </c>
     </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I48" s="3" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A49">
         <v>17</v>
       </c>
@@ -1437,17 +1440,17 @@
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I50" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I51" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="52" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>18</v>
       </c>
@@ -1473,17 +1476,17 @@
         <v>50</v>
       </c>
     </row>
-    <row r="53" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="I53" s="6" t="s">
         <v>51</v>
       </c>
     </row>
-    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="I54" s="6" t="s">
         <v>52</v>
       </c>
     </row>
-    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A55">
         <v>19</v>
       </c>
@@ -1509,17 +1512,17 @@
         <v>60</v>
       </c>
     </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I56" s="3" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I57" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="58" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>20</v>
       </c>
@@ -1545,17 +1548,17 @@
         <v>101</v>
       </c>
     </row>
-    <row r="59" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
       <c r="I59" s="6" t="s">
         <v>66</v>
       </c>
     </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I60" t="s">
         <v>64</v>
       </c>
     </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A61">
         <v>21</v>
       </c>
@@ -1581,17 +1584,17 @@
         <v>106</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I62" t="s">
         <v>107</v>
       </c>
     </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I63" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
       <c r="A64">
         <v>22</v>
       </c>
@@ -1617,17 +1620,17 @@
         <v>110</v>
       </c>
     </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I65" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I66" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A67">
         <v>23</v>
       </c>
@@ -1653,12 +1656,12 @@
         <v>118</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I68" t="s">
         <v>117</v>
       </c>
     </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I69" t="s">
         <v>116</v>
       </c>

--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\Documents\GitHub\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82CB6BA9-FA5E-4E37-A076-AC7CDAD78EEB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D57D98-8738-4F19-B23E-C1D12E9F201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="216" uniqueCount="120">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="150">
   <si>
     <t>with</t>
   </si>
@@ -186,12 +186,6 @@
     <t>Curriculum and Instruction</t>
   </si>
   <si>
-    <t>Relationships Between School, Teacher, and Feature Characteristics and Teachers’ Access to Features within Digital Curriculum Resources for Mathematics Instruction Reported by Teachers on the Rand Corporation American Instructional Resources Survey (AIRS) 2019</t>
-  </si>
-  <si>
-    <t>Defended proposal: May 2021</t>
-  </si>
-  <si>
     <t>Mentor: Dr. Patricia Moyer-Packenham</t>
   </si>
   <si>
@@ -213,18 +207,6 @@
     <t>Noa Reuveni</t>
   </si>
   <si>
-    <t>Demi Culianas</t>
-  </si>
-  <si>
-    <t>Disertation Title: TBD</t>
-  </si>
-  <si>
-    <t>Comprehensive examimation passed: April 2021</t>
-  </si>
-  <si>
-    <t>Mentor: Dr. Tyson Barrett</t>
-  </si>
-  <si>
     <t>Megan Golson</t>
   </si>
   <si>
@@ -234,9 +216,6 @@
     <t>Psychology - Combined Program</t>
   </si>
   <si>
-    <t>Committee Fromed: June 2021</t>
-  </si>
-  <si>
     <t>Mentor: Dr. Joann Tschanz</t>
   </si>
   <si>
@@ -258,18 +237,9 @@
     <t>Cassity Havercamp</t>
   </si>
   <si>
-    <t>App-Based Academic Interventions for Children with Autism Spectrum Disorder</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Expected defense: 2022 </t>
-  </si>
-  <si>
     <t>Kandice Benalli</t>
   </si>
   <si>
-    <t>Expected defense: 2022 (currently collecting data)</t>
-  </si>
-  <si>
     <t>The Impact of COVID-19 and Telehealth Services on Attrition Rates in Psychotherapy</t>
   </si>
   <si>
@@ -291,15 +261,9 @@
     <t>An Investigation into the Feasibility of Streamlining Language Sample Analysis through Computer-Automated Transcription and Scoring</t>
   </si>
   <si>
-    <t>Master's degree awarded: May 2021</t>
-  </si>
-  <si>
     <t>Mentor: Dr. Tim Slocum</t>
   </si>
   <si>
-    <t>Successful dissertation defense: May 2021</t>
-  </si>
-  <si>
     <t>Elizabeth Kat Vernon</t>
   </si>
   <si>
@@ -312,9 +276,6 @@
     <t>Defining Areas of Interest Using Modified Voronoi Tessellations to Analyze Eye-Tracking Data</t>
   </si>
   <si>
-    <t>Expected defense: winter 2021</t>
-  </si>
-  <si>
     <t>Joanna Coltrin</t>
   </si>
   <si>
@@ -354,33 +315,18 @@
     <t>Sociology</t>
   </si>
   <si>
-    <t>BMI trajectories in the AddHealth</t>
-  </si>
-  <si>
-    <t>Mulilevel Modeling with Multiple Imputations</t>
-  </si>
-  <si>
     <t>Psychology - Brain and Cognition</t>
   </si>
   <si>
     <t>Stephanie (Crank) Avila</t>
   </si>
   <si>
-    <t>Language influene on deception and its detection</t>
-  </si>
-  <si>
-    <t>Expected defense: Spring 2023</t>
-  </si>
-  <si>
     <t>Ben Juarez</t>
   </si>
   <si>
     <t>Psychology - Clinical Counseling</t>
   </si>
   <si>
-    <t>Mentor: Dr. Chris Warren</t>
-  </si>
-  <si>
     <t>Mentor: Dr. Eric Reither</t>
   </si>
   <si>
@@ -394,6 +340,150 @@
   </si>
   <si>
     <t>May 2022</t>
+  </si>
+  <si>
+    <t>Black-White Disparities in Body Mass Index Trajectories from Adolescence to Early Adulthood: Assessing the Roles of Adverse Childhood Experiences and Cumulative Exposure to Short Sleep Durations</t>
+  </si>
+  <si>
+    <t>Alex Hammond</t>
+  </si>
+  <si>
+    <t>Development of a Multidimensional Index of Fall Risk for Older Adults: The Cache County Study</t>
+  </si>
+  <si>
+    <t>Mentor: JoAnn Tschanz</t>
+  </si>
+  <si>
+    <t>Kaitlyn Kauzor</t>
+  </si>
+  <si>
+    <t>Course of Disease Progression and Time to Death Among Different Dementia Types in a Population Based Study</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd/8433/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd/8508/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd/8366/ </t>
+  </si>
+  <si>
+    <t>Online Deception: The Impact of Language in Test-Based Deception Detection</t>
+  </si>
+  <si>
+    <t>Mentor: Dr. Chris Warren, Greg Madden</t>
+  </si>
+  <si>
+    <t>April 2023</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd/8887/ </t>
+  </si>
+  <si>
+    <t>App-Based Academic Interventions for Children With Autism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd/7693/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd/8550/ </t>
+  </si>
+  <si>
+    <t>Relationships Between School, Teacher, and Feature Characteristics and Teachers’ Access to Features Within Digital Curriculum Resources for Mathematics Instruction</t>
+  </si>
+  <si>
+    <t>Proposal Defense: Febuary 23, 2023</t>
+  </si>
+  <si>
+    <t>March 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd/8798/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd/8855/ </t>
+  </si>
+  <si>
+    <t>Aug 2023</t>
+  </si>
+  <si>
+    <t>April 2024</t>
+  </si>
+  <si>
+    <t>Combined efficacy of Counter-Stereotype Training (CST) and Situational Attribution Training (SAT) in reducing implicit racial bias</t>
+  </si>
+  <si>
+    <t>Proposal: currently drafting, spring 2024</t>
+  </si>
+  <si>
+    <t>Dec 2024</t>
+  </si>
+  <si>
+    <t>Niyonta Chowdhury</t>
+  </si>
+  <si>
+    <t>Added in place of Jamison Fargo (left USU)</t>
+  </si>
+  <si>
+    <t>TBA</t>
+  </si>
+  <si>
+    <t>Juan Molano Gallardo</t>
+  </si>
+  <si>
+    <t>Mentor: Dr. Greg Madden</t>
+  </si>
+  <si>
+    <t>Exploring the impact of discriminative stimuli and Pavlovian signals on self-control in rats, particularly in situations where the self-control alternative involves risk</t>
+  </si>
+  <si>
+    <t>Master's Thesis</t>
+  </si>
+  <si>
+    <t>Final Defense: August 27, 2024</t>
+  </si>
+  <si>
+    <t>August 224</t>
+  </si>
+  <si>
+    <t>September 2024</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd2023/156/ </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd2023/147/  </t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd2023/346/ </t>
+  </si>
+  <si>
+    <t>Mikaela Drewel</t>
+  </si>
+  <si>
+    <t>Mentor: Dr JoAnn Tschanz</t>
+  </si>
+  <si>
+    <t>Proposal: ETA January 2025</t>
+  </si>
+  <si>
+    <t>TBI recency effects and time-to-AD using the CCMS and NACC data (genotype, medications, etc.)</t>
+  </si>
+  <si>
+    <t>Kory Klimczak</t>
+  </si>
+  <si>
+    <t>Efficacy and engagement in digital acceptance and commitment therapy: A meta-analysis and investigation of mechanisms</t>
+  </si>
+  <si>
+    <t>Mentor: Dr Michael Levin</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Proposal defense: Sepember 23, 2024 </t>
+  </si>
+  <si>
+    <t>Diana Perez</t>
   </si>
 </sst>
 </file>
@@ -438,10 +528,9 @@
     </font>
     <font>
       <sz val="12"/>
-      <color rgb="FF000000"/>
-      <name val="Calibri"/>
+      <color theme="1"/>
+      <name val="Arial"/>
       <family val="2"/>
-      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -465,13 +554,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
@@ -482,6 +569,9 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -502,9 +592,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 2013 - 2022 Theme">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2013 - 2022">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -542,7 +632,7 @@
         <a:srgbClr val="954F72"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2013 - 2022">
       <a:majorFont>
         <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
@@ -648,7 +738,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2013 - 2022">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -790,7 +880,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office 2013 - 2022 Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -798,24 +888,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE0E004-468D-403D-8056-2F867B2BC815}">
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="I26" sqref="I26"/>
+    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I74" sqref="I74"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
   <cols>
     <col min="5" max="5" width="23.59765625" customWidth="1"/>
     <col min="6" max="6" width="13.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.86328125" style="5" customWidth="1"/>
+    <col min="7" max="7" width="26.86328125" customWidth="1"/>
     <col min="8" max="8" width="14.3984375" customWidth="1"/>
     <col min="9" max="9" width="37.1328125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A1" t="s">
-        <v>98</v>
+        <v>85</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -832,7 +922,7 @@
       <c r="F1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="G1" s="5" t="s">
+      <c r="G1" t="s">
         <v>0</v>
       </c>
       <c r="H1" t="s">
@@ -859,15 +949,15 @@
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>100</v>
-      </c>
-      <c r="G2" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="H2" t="s">
         <v>11</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" t="s">
         <v>36</v>
       </c>
     </row>
@@ -877,541 +967,546 @@
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I4" s="3" t="s">
+      <c r="I4" t="s">
         <v>38</v>
       </c>
     </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A5">
+        <v>2</v>
+      </c>
+      <c r="B5" t="s">
+        <v>5</v>
+      </c>
+      <c r="C5" t="s">
+        <v>7</v>
+      </c>
+      <c r="D5" t="s">
+        <v>21</v>
+      </c>
+      <c r="E5" t="s">
+        <v>14</v>
+      </c>
+      <c r="F5" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" t="s">
+        <v>17</v>
+      </c>
+      <c r="I5" t="s">
+        <v>18</v>
+      </c>
+    </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A6">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" t="s">
-        <v>7</v>
-      </c>
-      <c r="D6" t="s">
-        <v>21</v>
-      </c>
-      <c r="E6" t="s">
-        <v>14</v>
-      </c>
-      <c r="F6" s="1" t="s">
-        <v>95</v>
-      </c>
-      <c r="G6" s="5" t="s">
+      <c r="I6" s="2" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I7" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A8">
+        <v>3</v>
+      </c>
+      <c r="B8" t="s">
+        <v>5</v>
+      </c>
+      <c r="C8" t="s">
+        <v>7</v>
+      </c>
+      <c r="D8" t="s">
+        <v>21</v>
+      </c>
+      <c r="E8" t="s">
+        <v>22</v>
+      </c>
+      <c r="F8" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G8" t="s">
         <v>17</v>
       </c>
-      <c r="I6" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I7" s="2" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I8" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I9" s="2" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I10" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A11">
+        <v>4</v>
+      </c>
+      <c r="B11" t="s">
+        <v>5</v>
+      </c>
+      <c r="C11" t="s">
+        <v>7</v>
+      </c>
+      <c r="D11" t="s">
+        <v>21</v>
+      </c>
+      <c r="E11" t="s">
+        <v>26</v>
+      </c>
+      <c r="F11" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="G11" t="s">
+        <v>27</v>
+      </c>
+      <c r="I11" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I12" s="2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I13" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A14">
+        <v>5</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14" t="s">
+        <v>7</v>
+      </c>
+      <c r="D14" t="s">
+        <v>15</v>
+      </c>
+      <c r="E14" t="s">
+        <v>8</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G14" t="s">
+        <v>84</v>
+      </c>
+      <c r="I14" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I15" s="2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A16">
+        <v>6</v>
+      </c>
+      <c r="B16" t="s">
+        <v>5</v>
+      </c>
+      <c r="C16" t="s">
+        <v>7</v>
+      </c>
+      <c r="D16" t="s">
+        <v>21</v>
+      </c>
+      <c r="E16" t="s">
+        <v>33</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G16" t="s">
+        <v>32</v>
+      </c>
+      <c r="I16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I17" s="2" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I18" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A19">
+        <v>7</v>
+      </c>
+      <c r="B19" t="s">
+        <v>44</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
+        <v>45</v>
+      </c>
+      <c r="F19" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I19" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I20" s="2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A9">
-        <v>3</v>
-      </c>
-      <c r="B9" t="s">
-        <v>5</v>
-      </c>
-      <c r="C9" t="s">
-        <v>7</v>
-      </c>
-      <c r="D9" t="s">
-        <v>21</v>
-      </c>
-      <c r="E9" t="s">
-        <v>22</v>
-      </c>
-      <c r="F9" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G9" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="I9" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I10" s="2" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I11" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A12">
-        <v>4</v>
-      </c>
-      <c r="B12" t="s">
-        <v>5</v>
-      </c>
-      <c r="C12" t="s">
-        <v>7</v>
-      </c>
-      <c r="D12" t="s">
-        <v>21</v>
-      </c>
-      <c r="E12" t="s">
-        <v>26</v>
-      </c>
-      <c r="F12" s="1" t="s">
-        <v>96</v>
-      </c>
-      <c r="G12" s="5" t="s">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A22">
+        <v>8</v>
+      </c>
+      <c r="B22" t="s">
+        <v>44</v>
+      </c>
+      <c r="C22" t="s">
+        <v>7</v>
+      </c>
+      <c r="D22" t="s">
+        <v>21</v>
+      </c>
+      <c r="E22" t="s">
+        <v>56</v>
+      </c>
+      <c r="F22" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G22" t="s">
+        <v>32</v>
+      </c>
+      <c r="I22" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="B23" t="s">
+        <v>13</v>
+      </c>
+      <c r="I23" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="I24" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A25">
+        <v>9</v>
+      </c>
+      <c r="B25" t="s">
+        <v>5</v>
+      </c>
+      <c r="C25" t="s">
+        <v>7</v>
+      </c>
+      <c r="D25" t="s">
+        <v>21</v>
+      </c>
+      <c r="E25" t="s">
+        <v>72</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="G25" t="s">
+        <v>73</v>
+      </c>
+      <c r="I25" s="5" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I26" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I27" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A28">
+        <v>10</v>
+      </c>
+      <c r="B28" t="s">
+        <v>5</v>
+      </c>
+      <c r="C28" t="s">
+        <v>7</v>
+      </c>
+      <c r="D28" t="s">
+        <v>21</v>
+      </c>
+      <c r="E28" t="s">
+        <v>76</v>
+      </c>
+      <c r="F28" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G28" t="s">
+        <v>32</v>
+      </c>
+      <c r="I28" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I29" s="2" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I30" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A31">
+        <v>11</v>
+      </c>
+      <c r="B31" t="s">
+        <v>5</v>
+      </c>
+      <c r="C31" t="s">
+        <v>7</v>
+      </c>
+      <c r="D31" t="s">
+        <v>21</v>
+      </c>
+      <c r="E31" t="s">
+        <v>65</v>
+      </c>
+      <c r="F31" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="G31" t="s">
+        <v>32</v>
+      </c>
+      <c r="I31" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I32" s="2" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I33" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A34">
+        <v>12</v>
+      </c>
+      <c r="B34" t="s">
+        <v>44</v>
+      </c>
+      <c r="C34" t="s">
+        <v>7</v>
+      </c>
+      <c r="D34" t="s">
+        <v>21</v>
+      </c>
+      <c r="E34" t="s">
+        <v>69</v>
+      </c>
+      <c r="F34" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G34" t="s">
         <v>27</v>
       </c>
-      <c r="I12" s="3" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I13" s="2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I14" s="3" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A15">
-        <v>5</v>
-      </c>
-      <c r="B15" t="s">
-        <v>5</v>
-      </c>
-      <c r="C15" t="s">
-        <v>7</v>
-      </c>
-      <c r="D15" t="s">
-        <v>15</v>
-      </c>
-      <c r="E15" t="s">
-        <v>8</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G15" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="I15" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I16" s="2" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A17">
-        <v>6</v>
-      </c>
-      <c r="B17" t="s">
-        <v>5</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
-      </c>
-      <c r="D17" t="s">
-        <v>21</v>
-      </c>
-      <c r="E17" t="s">
-        <v>33</v>
-      </c>
-      <c r="F17" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G17" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I17" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I18" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I19" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A20">
-        <v>7</v>
-      </c>
-      <c r="B20" t="s">
-        <v>44</v>
-      </c>
-      <c r="C20" t="s">
-        <v>7</v>
-      </c>
-      <c r="D20" t="s">
-        <v>21</v>
-      </c>
-      <c r="E20" t="s">
-        <v>45</v>
-      </c>
-      <c r="F20" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G20" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I20" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I21" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I22" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A23">
-        <v>8</v>
-      </c>
-      <c r="B23" t="s">
-        <v>44</v>
-      </c>
-      <c r="C23" t="s">
-        <v>7</v>
-      </c>
-      <c r="D23" t="s">
-        <v>21</v>
-      </c>
-      <c r="E23" t="s">
-        <v>58</v>
-      </c>
-      <c r="F23" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G23" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I23" s="3" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="B24" t="s">
-        <v>13</v>
-      </c>
-      <c r="I24" s="2" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="I25" s="6" t="s">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A26">
-        <v>9</v>
-      </c>
-      <c r="B26" t="s">
-        <v>5</v>
-      </c>
-      <c r="C26" t="s">
-        <v>7</v>
-      </c>
-      <c r="D26" t="s">
-        <v>21</v>
-      </c>
-      <c r="E26" t="s">
-        <v>82</v>
-      </c>
-      <c r="F26" s="1" t="s">
-        <v>94</v>
-      </c>
-      <c r="G26" s="5" t="s">
-        <v>83</v>
-      </c>
-      <c r="I26" s="7" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I27" s="5" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I28" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A29">
-        <v>10</v>
-      </c>
-      <c r="B29" t="s">
-        <v>5</v>
-      </c>
-      <c r="C29" t="s">
-        <v>7</v>
-      </c>
-      <c r="D29" t="s">
-        <v>21</v>
-      </c>
-      <c r="E29" t="s">
-        <v>88</v>
-      </c>
-      <c r="F29" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G29" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I29" s="3" t="s">
+      <c r="I34" t="s">
         <v>68</v>
       </c>
     </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I30" s="2" t="s">
-        <v>69</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I31" t="s">
-        <v>67</v>
-      </c>
-    </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A32">
-        <v>11</v>
-      </c>
-      <c r="B32" t="s">
-        <v>5</v>
-      </c>
-      <c r="C32" t="s">
-        <v>7</v>
-      </c>
-      <c r="D32" t="s">
-        <v>21</v>
-      </c>
-      <c r="E32" t="s">
-        <v>72</v>
-      </c>
-      <c r="F32" s="1" t="s">
-        <v>99</v>
-      </c>
-      <c r="G32" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I32" s="3" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I33" s="2" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I34" t="s">
-        <v>67</v>
-      </c>
-    </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A35">
-        <v>12</v>
-      </c>
-      <c r="B35" t="s">
-        <v>5</v>
-      </c>
-      <c r="C35" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" t="s">
-        <v>21</v>
-      </c>
-      <c r="E35" t="s">
-        <v>73</v>
-      </c>
-      <c r="F35" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G35" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I35" t="s">
-        <v>74</v>
+      <c r="I35" s="2" t="s">
+        <v>108</v>
       </c>
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I36" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A37">
+        <v>13</v>
+      </c>
+      <c r="B37" t="s">
+        <v>5</v>
+      </c>
+      <c r="C37" t="s">
+        <v>7</v>
+      </c>
+      <c r="D37" t="s">
+        <v>21</v>
+      </c>
+      <c r="E37" t="s">
+        <v>45</v>
+      </c>
+      <c r="F37" s="1" t="s">
+        <v>90</v>
+      </c>
+      <c r="G37" s="3" t="s">
+        <v>48</v>
+      </c>
       <c r="I37" t="s">
-        <v>64</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A38">
-        <v>13</v>
-      </c>
-      <c r="B38" t="s">
-        <v>5</v>
-      </c>
-      <c r="C38" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" t="s">
-        <v>21</v>
-      </c>
-      <c r="E38" t="s">
-        <v>76</v>
-      </c>
-      <c r="F38" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G38" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I38" s="8" t="s">
-        <v>102</v>
+      <c r="I38" s="2" t="s">
+        <v>110</v>
       </c>
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I39" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A40">
+        <v>14</v>
+      </c>
+      <c r="B40" t="s">
+        <v>44</v>
+      </c>
+      <c r="C40" t="s">
+        <v>7</v>
+      </c>
+      <c r="D40" t="s">
+        <v>21</v>
+      </c>
+      <c r="E40" t="s">
+        <v>80</v>
+      </c>
+      <c r="F40" s="1" t="s">
+        <v>101</v>
+      </c>
+      <c r="G40" t="s">
+        <v>78</v>
+      </c>
+      <c r="I40" s="7" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I41" s="2" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I42" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I40" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A41">
-        <v>14</v>
-      </c>
-      <c r="B41" t="s">
-        <v>44</v>
-      </c>
-      <c r="C41" t="s">
-        <v>7</v>
-      </c>
-      <c r="D41" t="s">
-        <v>21</v>
-      </c>
-      <c r="E41" t="s">
-        <v>79</v>
-      </c>
-      <c r="F41" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G41" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="I41" s="5" t="s">
-        <v>78</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I42" s="5" t="s">
+    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A43">
+        <v>15</v>
+      </c>
+      <c r="B43" t="s">
+        <v>5</v>
+      </c>
+      <c r="C43" t="s">
+        <v>7</v>
+      </c>
+      <c r="D43" t="s">
+        <v>21</v>
+      </c>
+      <c r="E43" t="s">
+        <v>91</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>123</v>
+      </c>
+      <c r="G43" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I43" s="5" t="s">
-        <v>80</v>
+      <c r="I43" t="s">
+        <v>102</v>
       </c>
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A44">
-        <v>15</v>
-      </c>
-      <c r="B44" t="s">
-        <v>44</v>
-      </c>
-      <c r="C44" t="s">
-        <v>7</v>
-      </c>
-      <c r="D44" t="s">
-        <v>21</v>
-      </c>
-      <c r="E44" t="s">
-        <v>93</v>
-      </c>
-      <c r="F44" s="1" t="s">
-        <v>119</v>
-      </c>
-      <c r="G44" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I44" s="9" t="s">
-        <v>91</v>
+      <c r="I44" s="2" t="s">
+        <v>122</v>
       </c>
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I45" t="s">
-        <v>92</v>
+        <v>97</v>
       </c>
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A46">
+        <v>16</v>
+      </c>
+      <c r="B46" t="s">
+        <v>5</v>
+      </c>
+      <c r="C46" t="s">
+        <v>7</v>
+      </c>
+      <c r="D46" t="s">
+        <v>21</v>
+      </c>
+      <c r="E46" t="s">
+        <v>66</v>
+      </c>
+      <c r="F46" s="1" t="s">
+        <v>113</v>
+      </c>
+      <c r="G46" t="s">
+        <v>59</v>
+      </c>
       <c r="I46" t="s">
-        <v>89</v>
+        <v>115</v>
       </c>
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="A47">
-        <v>16</v>
-      </c>
-      <c r="B47" t="s">
-        <v>5</v>
-      </c>
-      <c r="C47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D47" t="s">
-        <v>21</v>
-      </c>
-      <c r="E47" t="s">
-        <v>41</v>
-      </c>
-      <c r="F47" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G47" s="5" t="s">
-        <v>90</v>
-      </c>
-      <c r="I47" s="3" t="s">
-        <v>42</v>
+      <c r="I47" s="2" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I48" s="3" t="s">
-        <v>43</v>
+      <c r="I48" t="s">
+        <v>58</v>
       </c>
     </row>
     <row r="49" spans="1:9" x14ac:dyDescent="0.45">
@@ -1428,29 +1523,29 @@
         <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>45</v>
+        <v>67</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>103</v>
-      </c>
-      <c r="G49" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="I49" t="s">
-        <v>84</v>
+        <v>113</v>
+      </c>
+      <c r="G49" t="s">
+        <v>59</v>
+      </c>
+      <c r="I49" s="6" t="s">
+        <v>89</v>
       </c>
     </row>
     <row r="50" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I50" t="s">
-        <v>85</v>
+      <c r="I50" s="2" t="s">
+        <v>116</v>
       </c>
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I51" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A52">
         <v>18</v>
       </c>
@@ -1458,32 +1553,32 @@
         <v>5</v>
       </c>
       <c r="C52" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D52" t="s">
         <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G52" s="4" t="s">
+        <v>127</v>
+      </c>
+      <c r="G52" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="I52" s="6" t="s">
+      <c r="I52" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I53" s="8" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="I54" s="4" t="s">
         <v>50</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="I53" s="6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="I54" s="6" t="s">
-        <v>52</v>
       </c>
     </row>
     <row r="55" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
@@ -1494,35 +1589,35 @@
         <v>5</v>
       </c>
       <c r="C55" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D55" t="s">
         <v>21</v>
       </c>
       <c r="E55" t="s">
+        <v>57</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="G55" t="s">
         <v>59</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G55" s="5" t="s">
-        <v>32</v>
-      </c>
-      <c r="I55" s="6" t="s">
-        <v>60</v>
+      <c r="I55" s="4" t="s">
+        <v>88</v>
       </c>
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I56" s="3" t="s">
-        <v>61</v>
+      <c r="I56" s="8" t="s">
+        <v>138</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I57" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A58">
         <v>20</v>
       </c>
@@ -1530,32 +1625,32 @@
         <v>5</v>
       </c>
       <c r="C58" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D58" t="s">
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>63</v>
+        <v>94</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G58" s="5" t="s">
-        <v>65</v>
-      </c>
-      <c r="I58" s="6" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="I59" s="6" t="s">
-        <v>66</v>
+        <v>124</v>
+      </c>
+      <c r="G58" t="s">
+        <v>93</v>
+      </c>
+      <c r="I58" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I59" s="2" t="s">
+        <v>139</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I60" t="s">
-        <v>64</v>
+        <v>112</v>
       </c>
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.45">
@@ -1572,34 +1667,34 @@
         <v>21</v>
       </c>
       <c r="E61" t="s">
-        <v>104</v>
+        <v>41</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="G61" t="s">
-        <v>105</v>
+        <v>78</v>
       </c>
       <c r="I61" t="s">
-        <v>106</v>
+        <v>42</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I62" t="s">
-        <v>107</v>
+        <v>119</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I63" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" ht="15.75" x14ac:dyDescent="0.5">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
       <c r="A64">
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>5</v>
+        <v>44</v>
       </c>
       <c r="C64" t="s">
         <v>40</v>
@@ -1608,26 +1703,26 @@
         <v>21</v>
       </c>
       <c r="E64" t="s">
-        <v>109</v>
+        <v>95</v>
       </c>
       <c r="F64" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G64" s="5" t="s">
-        <v>108</v>
-      </c>
-      <c r="I64" s="10" t="s">
-        <v>110</v>
+        <v>51</v>
+      </c>
+      <c r="G64" t="s">
+        <v>96</v>
+      </c>
+      <c r="I64" t="s">
+        <v>100</v>
       </c>
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I65" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I66" t="s">
-        <v>114</v>
+        <v>98</v>
       </c>
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.45">
@@ -1635,51 +1730,278 @@
         <v>23</v>
       </c>
       <c r="B67" t="s">
-        <v>44</v>
+        <v>5</v>
       </c>
       <c r="C67" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D67" t="s">
         <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>112</v>
+        <v>103</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>53</v>
-      </c>
-      <c r="G67" s="5" t="s">
-        <v>113</v>
+        <v>136</v>
+      </c>
+      <c r="G67" t="s">
+        <v>32</v>
       </c>
       <c r="I67" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I68" t="s">
-        <v>117</v>
+        <v>135</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.45">
       <c r="I69" t="s">
-        <v>116</v>
+        <v>105</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A70">
+        <v>24</v>
+      </c>
+      <c r="B70" t="s">
+        <v>5</v>
+      </c>
+      <c r="C70" t="s">
+        <v>7</v>
+      </c>
+      <c r="D70" t="s">
+        <v>21</v>
+      </c>
+      <c r="E70" t="s">
+        <v>106</v>
+      </c>
+      <c r="F70" s="1" t="s">
+        <v>137</v>
+      </c>
+      <c r="G70" t="s">
+        <v>32</v>
+      </c>
+      <c r="I70" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I71" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I72" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A73">
+        <v>25</v>
+      </c>
+      <c r="B73" t="s">
+        <v>5</v>
+      </c>
+      <c r="C73" t="s">
+        <v>40</v>
+      </c>
+      <c r="D73" t="s">
+        <v>21</v>
+      </c>
+      <c r="E73" t="s">
+        <v>149</v>
+      </c>
+      <c r="F73" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G73" t="s">
+        <v>32</v>
+      </c>
+      <c r="I73" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I74" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I75" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A76">
+        <v>26</v>
+      </c>
+      <c r="B76" t="s">
+        <v>5</v>
+      </c>
+      <c r="C76" t="s">
+        <v>40</v>
+      </c>
+      <c r="D76" t="s">
+        <v>21</v>
+      </c>
+      <c r="E76" t="s">
+        <v>128</v>
+      </c>
+      <c r="F76" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G76" t="s">
+        <v>32</v>
+      </c>
+      <c r="I76" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I77" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I78" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A79">
+        <v>27</v>
+      </c>
+      <c r="B79" t="s">
+        <v>5</v>
+      </c>
+      <c r="C79" t="s">
+        <v>40</v>
+      </c>
+      <c r="D79" t="s">
+        <v>21</v>
+      </c>
+      <c r="E79" t="s">
+        <v>131</v>
+      </c>
+      <c r="F79" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G79" t="s">
+        <v>32</v>
+      </c>
+      <c r="I79" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I80" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I81" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="A82">
+        <v>28</v>
+      </c>
+      <c r="B82" t="s">
+        <v>5</v>
+      </c>
+      <c r="C82" t="s">
+        <v>40</v>
+      </c>
+      <c r="D82" t="s">
+        <v>21</v>
+      </c>
+      <c r="E82" t="s">
+        <v>141</v>
+      </c>
+      <c r="F82" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G82" t="s">
+        <v>32</v>
+      </c>
+      <c r="I82" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I83" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I84" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+      <c r="A85">
+        <v>29</v>
+      </c>
+      <c r="B85" t="s">
+        <v>5</v>
+      </c>
+      <c r="C85" t="s">
+        <v>40</v>
+      </c>
+      <c r="D85" t="s">
+        <v>21</v>
+      </c>
+      <c r="E85" t="s">
+        <v>145</v>
+      </c>
+      <c r="F85" s="1" t="s">
+        <v>51</v>
+      </c>
+      <c r="G85" t="s">
+        <v>32</v>
+      </c>
+      <c r="I85" s="9" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I86" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+      <c r="I87" t="s">
+        <v>147</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
-    <hyperlink ref="I16" r:id="rId1" xr:uid="{239D535E-960E-4F0E-9765-D7C23E235298}"/>
-    <hyperlink ref="I7" r:id="rId2" xr:uid="{AE69CCEB-DA9B-4FA8-94FF-DBDD4E445951}"/>
-    <hyperlink ref="I10" r:id="rId3" xr:uid="{A5EA9765-39EF-4CF1-B18C-9E7C63538042}"/>
-    <hyperlink ref="I13" r:id="rId4" xr:uid="{0E9BA892-2E7A-444D-854D-76736680A76A}"/>
-    <hyperlink ref="I18" r:id="rId5" xr:uid="{ED647949-9103-4FD0-B5ED-3061789D4DC6}"/>
+    <hyperlink ref="I15" r:id="rId1" xr:uid="{239D535E-960E-4F0E-9765-D7C23E235298}"/>
+    <hyperlink ref="I6" r:id="rId2" xr:uid="{AE69CCEB-DA9B-4FA8-94FF-DBDD4E445951}"/>
+    <hyperlink ref="I9" r:id="rId3" xr:uid="{A5EA9765-39EF-4CF1-B18C-9E7C63538042}"/>
+    <hyperlink ref="I12" r:id="rId4" xr:uid="{0E9BA892-2E7A-444D-854D-76736680A76A}"/>
+    <hyperlink ref="I17" r:id="rId5" xr:uid="{ED647949-9103-4FD0-B5ED-3061789D4DC6}"/>
     <hyperlink ref="I3" r:id="rId6" xr:uid="{6FE2F274-4834-433A-B65F-C9DEC4255074}"/>
-    <hyperlink ref="I21" r:id="rId7" xr:uid="{437F64EC-7ED4-44C8-B144-7C2FB91C3D5E}"/>
-    <hyperlink ref="I24" r:id="rId8" xr:uid="{19BB7506-12C0-4521-85A1-B93DBE33D301}"/>
-    <hyperlink ref="I30" r:id="rId9" xr:uid="{6A6AD196-B0F1-4419-9821-48086BF76230}"/>
-    <hyperlink ref="I33" r:id="rId10" xr:uid="{595FBA2E-8E09-458F-A4C3-111A47B02FAD}"/>
+    <hyperlink ref="I20" r:id="rId7" xr:uid="{437F64EC-7ED4-44C8-B144-7C2FB91C3D5E}"/>
+    <hyperlink ref="I23" r:id="rId8" xr:uid="{19BB7506-12C0-4521-85A1-B93DBE33D301}"/>
+    <hyperlink ref="I29" r:id="rId9" xr:uid="{6A6AD196-B0F1-4419-9821-48086BF76230}"/>
+    <hyperlink ref="I32" r:id="rId10" xr:uid="{595FBA2E-8E09-458F-A4C3-111A47B02FAD}"/>
+    <hyperlink ref="I35" r:id="rId11" xr:uid="{4BA0498C-C147-4DFA-8E91-5EAF5AEF0A18}"/>
+    <hyperlink ref="I41" r:id="rId12" xr:uid="{05440E97-9690-4873-B0C0-019411E62336}"/>
+    <hyperlink ref="I38" r:id="rId13" xr:uid="{BA341C18-E1A3-46FB-85BB-862A630D43BE}"/>
+    <hyperlink ref="I47" r:id="rId14" xr:uid="{F35202CA-AD9C-4F27-AD89-FDA981A97090}"/>
+    <hyperlink ref="I50" r:id="rId15" xr:uid="{EF5DA3FD-EFE6-43A1-8336-1222B7875C42}"/>
+    <hyperlink ref="I26" r:id="rId16" xr:uid="{82C1E314-6454-42F2-8534-2405EF1F308A}"/>
+    <hyperlink ref="I53" r:id="rId17" xr:uid="{928AD55D-A632-471E-A3DD-5632E642BE9C}"/>
+    <hyperlink ref="I44" r:id="rId18" xr:uid="{8EAA5FC0-2219-4735-B778-32CD6CB47E7C}"/>
+    <hyperlink ref="I56" r:id="rId19" xr:uid="{4EFC9C43-2977-4DFC-BFAD-7A7BAE9CFE3E}"/>
+    <hyperlink ref="I59" r:id="rId20" xr:uid="{14B12876-8111-44D7-8AA2-C503F29EB247}"/>
+    <hyperlink ref="I71" r:id="rId21" xr:uid="{E3196D21-6548-4B8D-AD81-0F80731CBE18}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId11"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId22"/>
 </worksheet>
 </file>
--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28025"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\jy_CV\data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\myCV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{45D57D98-8738-4F19-B23E-C1D12E9F201D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B7E84A-5B43-4540-9C6A-B6A71BCBEDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="21795" windowHeight="13875" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="150">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="151">
   <si>
     <t>with</t>
   </si>
@@ -162,9 +162,6 @@
     <t>Chris Johnson</t>
   </si>
   <si>
-    <t>Comprehensive examimation passed: July 2021</t>
-  </si>
-  <si>
     <t>Mentor: Dr. Chris Corcoran</t>
   </si>
   <si>
@@ -393,9 +390,6 @@
     <t>Relationships Between School, Teacher, and Feature Characteristics and Teachers’ Access to Features Within Digital Curriculum Resources for Mathematics Instruction</t>
   </si>
   <si>
-    <t>Proposal Defense: Febuary 23, 2023</t>
-  </si>
-  <si>
     <t>March 2024</t>
   </si>
   <si>
@@ -484,6 +478,15 @@
   </si>
   <si>
     <t>Diana Perez</t>
+  </si>
+  <si>
+    <t>March 2025</t>
+  </si>
+  <si>
+    <t>Final Defense: March, 28, 2025</t>
+  </si>
+  <si>
+    <t>Development of Saddlepoint Methodologies for Sparse Sample Multiple Parameter Generalized Linear Models And Correlated Data Scenarios</t>
   </si>
 </sst>
 </file>
@@ -890,22 +893,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1AE0E004-468D-403D-8056-2F867B2BC815}">
   <dimension ref="A1:I87"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A60" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I74" sqref="I74"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
+      <selection activeCell="I61" sqref="I61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.45"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="5" max="5" width="23.59765625" customWidth="1"/>
-    <col min="6" max="6" width="13.59765625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="26.86328125" customWidth="1"/>
-    <col min="8" max="8" width="14.3984375" customWidth="1"/>
-    <col min="9" max="9" width="37.1328125" customWidth="1"/>
+    <col min="5" max="5" width="23.5703125" customWidth="1"/>
+    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="7" max="7" width="26.85546875" customWidth="1"/>
+    <col min="8" max="8" width="14.42578125" customWidth="1"/>
+    <col min="9" max="9" width="37.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B1" t="s">
         <v>12</v>
@@ -932,7 +935,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
@@ -949,7 +952,7 @@
         <v>39</v>
       </c>
       <c r="F2" s="1" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>17</v>
@@ -961,17 +964,17 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I3" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>2</v>
       </c>
@@ -988,7 +991,7 @@
         <v>14</v>
       </c>
       <c r="F5" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="G5" t="s">
         <v>17</v>
@@ -997,17 +1000,17 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I6" s="2" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="7" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I7" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>3</v>
       </c>
@@ -1024,7 +1027,7 @@
         <v>22</v>
       </c>
       <c r="F8" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G8" t="s">
         <v>17</v>
@@ -1033,17 +1036,17 @@
         <v>23</v>
       </c>
     </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I9" s="2" t="s">
         <v>25</v>
       </c>
     </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I10" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="11" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>4</v>
       </c>
@@ -1060,7 +1063,7 @@
         <v>26</v>
       </c>
       <c r="F11" s="1" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="G11" t="s">
         <v>27</v>
@@ -1069,17 +1072,17 @@
         <v>28</v>
       </c>
     </row>
-    <row r="12" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I12" s="2" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="13" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I13" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="14" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>5</v>
       </c>
@@ -1096,21 +1099,21 @@
         <v>8</v>
       </c>
       <c r="F14" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G14" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="I14" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="15" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I15" s="2" t="s">
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>6</v>
       </c>
@@ -1127,7 +1130,7 @@
         <v>33</v>
       </c>
       <c r="F16" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G16" t="s">
         <v>32</v>
@@ -1136,58 +1139,58 @@
         <v>31</v>
       </c>
     </row>
-    <row r="17" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I17" s="2" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="18" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I18" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="19" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19">
         <v>7</v>
       </c>
       <c r="B19" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" t="s">
+        <v>7</v>
+      </c>
+      <c r="D19" t="s">
+        <v>21</v>
+      </c>
+      <c r="E19" t="s">
         <v>44</v>
       </c>
-      <c r="C19" t="s">
-        <v>7</v>
-      </c>
-      <c r="D19" t="s">
-        <v>21</v>
-      </c>
-      <c r="E19" t="s">
+      <c r="F19" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G19" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="I19" t="s">
         <v>45</v>
       </c>
-      <c r="F19" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G19" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="I19" t="s">
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I20" s="2" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="20" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I20" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="21" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I21" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="22" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22">
         <v>8</v>
       </c>
       <c r="B22" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C22" t="s">
         <v>7</v>
@@ -1196,32 +1199,32 @@
         <v>21</v>
       </c>
       <c r="E22" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" s="1" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="G22" t="s">
         <v>32</v>
       </c>
       <c r="I22" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" x14ac:dyDescent="0.45">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="B23" t="s">
         <v>13</v>
       </c>
       <c r="I23" s="2" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="I24" s="4" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" x14ac:dyDescent="0.45">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25">
         <v>9</v>
       </c>
@@ -1235,29 +1238,29 @@
         <v>21</v>
       </c>
       <c r="E25" t="s">
+        <v>71</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="G25" t="s">
         <v>72</v>
       </c>
-      <c r="F25" s="1" t="s">
-        <v>81</v>
-      </c>
-      <c r="G25" t="s">
-        <v>73</v>
-      </c>
       <c r="I25" s="5" t="s">
-        <v>71</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" x14ac:dyDescent="0.45">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I26" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" x14ac:dyDescent="0.45">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I27" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" x14ac:dyDescent="0.45">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28">
         <v>10</v>
       </c>
@@ -1271,29 +1274,29 @@
         <v>21</v>
       </c>
       <c r="E28" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F28" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G28" t="s">
         <v>32</v>
       </c>
       <c r="I28" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="29" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I29" s="2" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I29" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="30" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I30" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="31" spans="1:9" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31">
         <v>11</v>
       </c>
@@ -1307,34 +1310,34 @@
         <v>21</v>
       </c>
       <c r="E31" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="F31" s="1" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="G31" t="s">
         <v>32</v>
       </c>
       <c r="I31" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I32" s="2" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="32" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I32" s="2" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="33" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I33" t="s">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="34" spans="1:9" x14ac:dyDescent="0.45">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>12</v>
       </c>
       <c r="B34" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C34" t="s">
         <v>7</v>
@@ -1343,29 +1346,29 @@
         <v>21</v>
       </c>
       <c r="E34" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="F34" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G34" t="s">
         <v>27</v>
       </c>
       <c r="I34" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="35" spans="1:9" x14ac:dyDescent="0.45">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I35" s="2" t="s">
-        <v>108</v>
-      </c>
-    </row>
-    <row r="36" spans="1:9" x14ac:dyDescent="0.45">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I36" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="37" spans="1:9" x14ac:dyDescent="0.45">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>13</v>
       </c>
@@ -1379,34 +1382,34 @@
         <v>21</v>
       </c>
       <c r="E37" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F37" s="1" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="G37" s="3" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="I37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="38" spans="1:9" x14ac:dyDescent="0.45">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I38" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="39" spans="1:9" x14ac:dyDescent="0.45">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>14</v>
       </c>
       <c r="B40" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C40" t="s">
         <v>7</v>
@@ -1415,29 +1418,29 @@
         <v>21</v>
       </c>
       <c r="E40" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F40" s="1" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="G40" t="s">
+        <v>77</v>
+      </c>
+      <c r="I40" s="7" t="s">
         <v>78</v>
       </c>
-      <c r="I40" s="7" t="s">
-        <v>79</v>
-      </c>
-    </row>
-    <row r="41" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I41" s="2" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="42" spans="1:9" x14ac:dyDescent="0.45">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I42" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="43" spans="1:9" x14ac:dyDescent="0.45">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>15</v>
       </c>
@@ -1451,29 +1454,29 @@
         <v>21</v>
       </c>
       <c r="E43" t="s">
+        <v>90</v>
+      </c>
+      <c r="F43" s="1" t="s">
+        <v>121</v>
+      </c>
+      <c r="G43" t="s">
         <v>91</v>
       </c>
-      <c r="F43" s="1" t="s">
-        <v>123</v>
-      </c>
-      <c r="G43" t="s">
-        <v>92</v>
-      </c>
       <c r="I43" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="44" spans="1:9" x14ac:dyDescent="0.45">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I44" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="45" spans="1:9" x14ac:dyDescent="0.45">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I45" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="46" spans="1:9" x14ac:dyDescent="0.45">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>16</v>
       </c>
@@ -1487,29 +1490,29 @@
         <v>21</v>
       </c>
       <c r="E46" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="F46" s="1" t="s">
+        <v>112</v>
+      </c>
+      <c r="G46" t="s">
+        <v>58</v>
+      </c>
+      <c r="I46" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I47" s="2" t="s">
         <v>113</v>
       </c>
-      <c r="G46" t="s">
-        <v>59</v>
-      </c>
-      <c r="I46" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="47" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I47" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="48" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I48" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="49" spans="1:9" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>17</v>
       </c>
@@ -1523,29 +1526,29 @@
         <v>21</v>
       </c>
       <c r="E49" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="F49" s="1" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="G49" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="I49" s="6" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="50" spans="1:9" x14ac:dyDescent="0.45">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I50" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="51" spans="1:9" x14ac:dyDescent="0.45">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I51" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="52" spans="1:9" x14ac:dyDescent="0.45">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>18</v>
       </c>
@@ -1559,29 +1562,29 @@
         <v>21</v>
       </c>
       <c r="E52" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="F52" s="1" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="G52" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="I52" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I53" s="8" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="I54" s="4" t="s">
         <v>49</v>
       </c>
-      <c r="I52" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="53" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I53" s="8" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
-      <c r="I54" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="55" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+    </row>
+    <row r="55" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>19</v>
       </c>
@@ -1595,29 +1598,29 @@
         <v>21</v>
       </c>
       <c r="E55" t="s">
+        <v>56</v>
+      </c>
+      <c r="F55" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="G55" t="s">
+        <v>58</v>
+      </c>
+      <c r="I55" s="4" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I56" s="8" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I57" t="s">
         <v>57</v>
       </c>
-      <c r="F55" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="G55" t="s">
-        <v>59</v>
-      </c>
-      <c r="I55" s="4" t="s">
-        <v>88</v>
-      </c>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I56" s="8" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="57" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I57" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="58" spans="1:9" x14ac:dyDescent="0.45">
+    </row>
+    <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>20</v>
       </c>
@@ -1631,29 +1634,29 @@
         <v>21</v>
       </c>
       <c r="E58" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F58" s="1" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="G58" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="I58" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I59" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I60" t="s">
         <v>111</v>
       </c>
     </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I59" s="2" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="60" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I60" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="61" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>21</v>
       </c>
@@ -1670,31 +1673,31 @@
         <v>41</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>51</v>
+        <v>148</v>
       </c>
       <c r="G61" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="I61" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I62" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I63" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="62" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I62" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="63" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I63" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="64" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>22</v>
       </c>
       <c r="B64" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C64" t="s">
         <v>40</v>
@@ -1703,29 +1706,29 @@
         <v>21</v>
       </c>
       <c r="E64" t="s">
+        <v>94</v>
+      </c>
+      <c r="F64" s="1" t="s">
+        <v>50</v>
+      </c>
+      <c r="G64" t="s">
         <v>95</v>
       </c>
-      <c r="F64" s="1" t="s">
-        <v>51</v>
-      </c>
-      <c r="G64" t="s">
-        <v>96</v>
-      </c>
       <c r="I64" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="65" spans="1:9" x14ac:dyDescent="0.45">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I65" t="s">
-        <v>99</v>
-      </c>
-    </row>
-    <row r="66" spans="1:9" x14ac:dyDescent="0.45">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I66" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="67" spans="1:9" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67">
         <v>23</v>
       </c>
@@ -1739,29 +1742,29 @@
         <v>21</v>
       </c>
       <c r="E67" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
       </c>
       <c r="I67" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I68" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I69" t="s">
         <v>104</v>
       </c>
     </row>
-    <row r="68" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I68" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="69" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I69" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="70" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70">
         <v>24</v>
       </c>
@@ -1775,29 +1778,29 @@
         <v>21</v>
       </c>
       <c r="E70" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
       </c>
       <c r="I70" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="71" spans="1:9" x14ac:dyDescent="0.45">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I71" s="2" t="s">
-        <v>140</v>
-      </c>
-    </row>
-    <row r="72" spans="1:9" x14ac:dyDescent="0.45">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I72" t="s">
-        <v>105</v>
-      </c>
-    </row>
-    <row r="73" spans="1:9" x14ac:dyDescent="0.45">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73">
         <v>25</v>
       </c>
@@ -1811,29 +1814,29 @@
         <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F73" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G73" t="s">
         <v>32</v>
       </c>
       <c r="I73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:9" x14ac:dyDescent="0.45">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I74" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="75" spans="1:9" x14ac:dyDescent="0.45">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I75" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="76" spans="1:9" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76">
         <v>26</v>
       </c>
@@ -1847,29 +1850,29 @@
         <v>21</v>
       </c>
       <c r="E76" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
       </c>
       <c r="I76" t="s">
-        <v>130</v>
-      </c>
-    </row>
-    <row r="77" spans="1:9" x14ac:dyDescent="0.45">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.45">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I78" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="79" spans="1:9" x14ac:dyDescent="0.45">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79">
         <v>27</v>
       </c>
@@ -1883,29 +1886,29 @@
         <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="F79" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G79" t="s">
         <v>32</v>
       </c>
       <c r="I79" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="80" spans="1:9" x14ac:dyDescent="0.45">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="81" spans="1:9" x14ac:dyDescent="0.45">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="82" spans="1:9" x14ac:dyDescent="0.45">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82">
         <v>28</v>
       </c>
@@ -1919,29 +1922,29 @@
         <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F82" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G82" t="s">
         <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="83" spans="1:9" x14ac:dyDescent="0.45">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>143</v>
-      </c>
-    </row>
-    <row r="84" spans="1:9" x14ac:dyDescent="0.45">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="85" spans="1:9" ht="15.4" x14ac:dyDescent="0.45">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>29</v>
       </c>
@@ -1955,26 +1958,26 @@
         <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F85" s="1" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="G85" t="s">
         <v>32</v>
       </c>
       <c r="I85" s="9" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="86" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I86" t="s">
         <v>146</v>
       </c>
     </row>
-    <row r="86" spans="1:9" x14ac:dyDescent="0.45">
-      <c r="I86" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="87" spans="1:9" x14ac:dyDescent="0.45">
+    <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
   </sheetData>

--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\myCV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{75B7E84A-5B43-4540-9C6A-B6A71BCBEDB5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C610CC-931E-4574-8779-91CFB36EC01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
+    <workbookView xWindow="31185" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -435,15 +435,6 @@
     <t>Master's Thesis</t>
   </si>
   <si>
-    <t>Final Defense: August 27, 2024</t>
-  </si>
-  <si>
-    <t>August 224</t>
-  </si>
-  <si>
-    <t>September 2024</t>
-  </si>
-  <si>
     <t xml:space="preserve">https://digitalcommons.usu.edu/etd2023/156/ </t>
   </si>
   <si>
@@ -487,6 +478,15 @@
   </si>
   <si>
     <t>Development of Saddlepoint Methodologies for Sparse Sample Multiple Parameter Generalized Linear Models And Correlated Data Scenarios</t>
+  </si>
+  <si>
+    <t xml:space="preserve">https://digitalcommons.usu.edu/etd2023/360/ </t>
+  </si>
+  <si>
+    <t>Aug 2024</t>
+  </si>
+  <si>
+    <t>Sept 2024</t>
   </si>
 </sst>
 </file>
@@ -894,13 +894,13 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="I61" sqref="I61"/>
+      <selection activeCell="F70" sqref="F70"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="5" max="5" width="23.5703125" customWidth="1"/>
-    <col min="6" max="6" width="13.5703125" style="1" customWidth="1"/>
+    <col min="6" max="6" width="19.85546875" style="1" customWidth="1"/>
     <col min="7" max="7" width="26.85546875" customWidth="1"/>
     <col min="8" max="8" width="14.42578125" customWidth="1"/>
     <col min="9" max="9" width="37.140625" customWidth="1"/>
@@ -1612,7 +1612,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I56" s="8" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -1648,7 +1648,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I59" s="2" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -1664,7 +1664,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D61" t="s">
         <v>21</v>
@@ -1673,18 +1673,18 @@
         <v>41</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>148</v>
+        <v>145</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
       </c>
       <c r="I61" t="s">
-        <v>150</v>
+        <v>147</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
-        <v>149</v>
+        <v>146</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -1745,7 +1745,7 @@
         <v>102</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>134</v>
+        <v>149</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -1755,8 +1755,8 @@
       </c>
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I68" t="s">
-        <v>133</v>
+      <c r="I68" s="2" t="s">
+        <v>148</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -1781,7 +1781,7 @@
         <v>105</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>135</v>
+        <v>150</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -1792,7 +1792,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I71" s="2" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -1814,7 +1814,7 @@
         <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>147</v>
+        <v>144</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>50</v>
@@ -1922,7 +1922,7 @@
         <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>50</v>
@@ -1931,17 +1931,17 @@
         <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1958,7 +1958,7 @@
         <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>50</v>
@@ -1967,17 +1967,17 @@
         <v>32</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>146</v>
+        <v>143</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>145</v>
+        <v>142</v>
       </c>
     </row>
   </sheetData>
@@ -2003,8 +2003,9 @@
     <hyperlink ref="I56" r:id="rId19" xr:uid="{4EFC9C43-2977-4DFC-BFAD-7A7BAE9CFE3E}"/>
     <hyperlink ref="I59" r:id="rId20" xr:uid="{14B12876-8111-44D7-8AA2-C503F29EB247}"/>
     <hyperlink ref="I71" r:id="rId21" xr:uid="{E3196D21-6548-4B8D-AD81-0F80731CBE18}"/>
+    <hyperlink ref="I68" r:id="rId22" xr:uid="{0F41157F-D1EF-40C4-994D-E576806BB054}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId22"/>
+  <pageSetup orientation="portrait" verticalDpi="0" r:id="rId23"/>
 </worksheet>
 </file>
--- a/data/students.xlsx
+++ b/data/students.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28623"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\A00315273\GitHub\myCV\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4C610CC-931E-4574-8779-91CFB36EC01A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F62848AD-553E-4FD2-BC55-3C57068A34B6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="31185" yWindow="2460" windowWidth="21600" windowHeight="11295" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
+    <workbookView xWindow="29070" yWindow="2010" windowWidth="27555" windowHeight="14130" xr2:uid="{E8785A74-FE56-4D65-A4F0-E49533BAE9B0}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="271" uniqueCount="151">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="270" uniqueCount="152">
   <si>
     <t>with</t>
   </si>
@@ -417,12 +417,6 @@
     <t>Niyonta Chowdhury</t>
   </si>
   <si>
-    <t>Added in place of Jamison Fargo (left USU)</t>
-  </si>
-  <si>
-    <t>TBA</t>
-  </si>
-  <si>
     <t>Juan Molano Gallardo</t>
   </si>
   <si>
@@ -487,13 +481,22 @@
   </si>
   <si>
     <t>Sept 2024</t>
+  </si>
+  <si>
+    <t>Dec 2025</t>
+  </si>
+  <si>
+    <t>Faculty Diversity &amp; EDI Infrastructures: Associations with Student Outcomes</t>
+  </si>
+  <si>
+    <t>Co-Chair with Dr. Melanie Domenech Rodriguez</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -535,6 +538,12 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Aptos"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -557,7 +566,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
@@ -576,6 +585,7 @@
       <alignment horizontal="left" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -894,7 +904,7 @@
   <dimension ref="A1:I87"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A57" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <selection activeCell="F70" sqref="F70"/>
+      <selection activeCell="D76" sqref="D76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1612,7 +1622,7 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I56" s="8" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
@@ -1648,7 +1658,7 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I59" s="2" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.25">
@@ -1673,18 +1683,18 @@
         <v>41</v>
       </c>
       <c r="F61" s="1" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="G61" t="s">
         <v>77</v>
       </c>
       <c r="I61" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I62" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
@@ -1745,7 +1755,7 @@
         <v>102</v>
       </c>
       <c r="F67" s="1" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="G67" t="s">
         <v>32</v>
@@ -1756,7 +1766,7 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I68" s="2" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
@@ -1781,7 +1791,7 @@
         <v>105</v>
       </c>
       <c r="F70" s="1" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="G70" t="s">
         <v>32</v>
@@ -1792,7 +1802,7 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I71" s="2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
@@ -1814,7 +1824,7 @@
         <v>21</v>
       </c>
       <c r="E73" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F73" s="1" t="s">
         <v>50</v>
@@ -1844,32 +1854,27 @@
         <v>5</v>
       </c>
       <c r="C76" t="s">
-        <v>40</v>
+        <v>7</v>
       </c>
       <c r="D76" t="s">
-        <v>21</v>
+        <v>15</v>
       </c>
       <c r="E76" t="s">
         <v>126</v>
       </c>
       <c r="F76" s="1" t="s">
-        <v>50</v>
+        <v>149</v>
       </c>
       <c r="G76" t="s">
         <v>32</v>
       </c>
-      <c r="I76" t="s">
-        <v>128</v>
+      <c r="I76" s="10" t="s">
+        <v>150</v>
       </c>
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I77" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="78" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I78" t="s">
-        <v>97</v>
+        <v>151</v>
       </c>
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
@@ -1886,7 +1891,7 @@
         <v>21</v>
       </c>
       <c r="E79" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="F79" s="1" t="s">
         <v>50</v>
@@ -1895,17 +1900,17 @@
         <v>32</v>
       </c>
       <c r="I79" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I80" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I81" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
@@ -1922,7 +1927,7 @@
         <v>21</v>
       </c>
       <c r="E82" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="F82" s="1" t="s">
         <v>50</v>
@@ -1931,17 +1936,17 @@
         <v>32</v>
       </c>
       <c r="I82" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I83" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I84" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="85" spans="1:9" ht="15.75" x14ac:dyDescent="0.25">
@@ -1958,7 +1963,7 @@
         <v>21</v>
       </c>
       <c r="E85" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="F85" s="1" t="s">
         <v>50</v>
@@ -1967,17 +1972,17 @@
         <v>32</v>
       </c>
       <c r="I85" s="9" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I86" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I87" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
